--- a/src/excel_template/cdQC/XY scan difference category format.xlsx
+++ b/src/excel_template/cdQC/XY scan difference category format.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohnishitakayuki/tool/src/excel_template/cdQC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohnishi.takayuki\Documents\02 pythonサンプルプログラム\tool\src\excel_template\cdQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF7CE20-53C2-E240-8577-1CF44793D1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="23020" windowHeight="8960" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="23020" windowHeight="8960" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="101" r:id="rId1"/>
@@ -80,8 +79,8 @@
     <definedName name="HTML5_8" hidden="1">"97/01/08"</definedName>
     <definedName name="HTML5_9" hidden="1">"メモリープロジェクト 壷井"</definedName>
     <definedName name="HTMLCount" hidden="1">5</definedName>
+    <definedName name="検収済">#REF!</definedName>
     <definedName name="合計">#REF!</definedName>
-    <definedName name="検収済">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -387,13 +386,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -403,7 +402,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -411,7 +410,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -419,7 +418,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -446,7 +445,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -455,7 +454,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -464,7 +463,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -473,7 +472,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -481,7 +480,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -489,7 +488,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -497,7 +496,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -505,7 +504,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -514,7 +513,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -523,7 +522,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -531,7 +530,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -540,7 +539,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -548,7 +547,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -557,7 +556,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -566,7 +565,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -574,7 +573,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -582,7 +581,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -597,14 +596,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -612,7 +611,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -645,7 +644,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -654,14 +653,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1454,7 +1453,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1473,173 +1472,173 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="158">
-    <cellStyle name="20% - Accent1" xfId="63" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="67" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="71" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="75" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="79" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="83" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - アクセント 1 3" xfId="91" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - アクセント 1 4" xfId="92" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - アクセント 1 5" xfId="116" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - アクセント 1 6" xfId="117" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - アクセント 1 7" xfId="118" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - アクセント 2 3" xfId="93" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - アクセント 2 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - アクセント 2 5" xfId="119" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - アクセント 2 6" xfId="120" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - アクセント 2 7" xfId="121" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - アクセント 3 3" xfId="95" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - アクセント 3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - アクセント 3 5" xfId="122" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - アクセント 3 6" xfId="123" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - アクセント 3 7" xfId="124" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - アクセント 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="20% - アクセント 4 4" xfId="98" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - アクセント 4 5" xfId="125" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="20% - アクセント 4 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - アクセント 4 7" xfId="127" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - アクセント 5 3" xfId="99" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - アクセント 5 4" xfId="100" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - アクセント 5 5" xfId="128" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - アクセント 5 6" xfId="129" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - アクセント 5 7" xfId="130" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="20% - アクセント 6 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - アクセント 6 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="20% - アクセント 6 5" xfId="131" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - アクセント 6 6" xfId="132" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - アクセント 6 7" xfId="133" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="40% - Accent1" xfId="64" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="68" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="72" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="76" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="80" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="84" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="40% - アクセント 1 3" xfId="103" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="40% - アクセント 1 4" xfId="104" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="40% - アクセント 1 5" xfId="134" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="40% - アクセント 1 6" xfId="135" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="40% - アクセント 1 7" xfId="136" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="40% - アクセント 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="40% - アクセント 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="40% - アクセント 2 5" xfId="137" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="40% - アクセント 2 6" xfId="138" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="40% - アクセント 2 7" xfId="139" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="40% - アクセント 3 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="40% - アクセント 3 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="40% - アクセント 3 5" xfId="140" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="40% - アクセント 3 6" xfId="141" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="40% - アクセント 3 7" xfId="142" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="40% - アクセント 4 3" xfId="109" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - アクセント 4 4" xfId="110" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="40% - アクセント 4 5" xfId="143" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - アクセント 4 6" xfId="144" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="40% - アクセント 4 7" xfId="145" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40% - アクセント 5 3" xfId="111" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - アクセント 5 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="40% - アクセント 5 5" xfId="146" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - アクセント 5 6" xfId="147" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - アクセント 5 7" xfId="148" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - アクセント 6 3" xfId="113" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - アクセント 6 4" xfId="114" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - アクセント 6 5" xfId="149" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - アクセント 6 6" xfId="150" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - アクセント 6 7" xfId="151" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="60% - Accent1" xfId="65" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="69" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="73" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="77" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="81" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="85" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Accent1" xfId="62" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="66" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="70" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="74" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="78" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="82" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="52" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="56" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="58" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="60" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="51" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="47" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="48" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="49" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="50" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="54" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="57" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="53" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="55" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="46" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="61" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="59" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="アクセント 1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="アクセント 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="アクセント 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="アクセント 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="アクセント 5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="アクセント 6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="タイトル 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="チェック セル 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="チェックシート" xfId="1" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="どちらでもない 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="メモ 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="メモ 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="メモ 4" xfId="87" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="メモ 5" xfId="115" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="メモ 6" xfId="152" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="メモ 7" xfId="153" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="メモ 8" xfId="154" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="リンク セル 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="入力 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="出力 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="悪い 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="標準 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="標準 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="標準 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="標準 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="標準 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="標準 5 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="標準 6" xfId="155" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="標準 7" xfId="156" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="標準 8" xfId="157" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="良い 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="見出し 1 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="見出し 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="見出し 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="見出し 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="計算 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="説明文 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="警告文 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="集計 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - アクセント 1" xfId="63" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="2"/>
+    <cellStyle name="20% - アクセント 1 3" xfId="91"/>
+    <cellStyle name="20% - アクセント 1 4" xfId="92"/>
+    <cellStyle name="20% - アクセント 1 5" xfId="116"/>
+    <cellStyle name="20% - アクセント 1 6" xfId="117"/>
+    <cellStyle name="20% - アクセント 1 7" xfId="118"/>
+    <cellStyle name="20% - アクセント 2" xfId="67" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="3"/>
+    <cellStyle name="20% - アクセント 2 3" xfId="93"/>
+    <cellStyle name="20% - アクセント 2 4" xfId="94"/>
+    <cellStyle name="20% - アクセント 2 5" xfId="119"/>
+    <cellStyle name="20% - アクセント 2 6" xfId="120"/>
+    <cellStyle name="20% - アクセント 2 7" xfId="121"/>
+    <cellStyle name="20% - アクセント 3" xfId="71" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="4"/>
+    <cellStyle name="20% - アクセント 3 3" xfId="95"/>
+    <cellStyle name="20% - アクセント 3 4" xfId="96"/>
+    <cellStyle name="20% - アクセント 3 5" xfId="122"/>
+    <cellStyle name="20% - アクセント 3 6" xfId="123"/>
+    <cellStyle name="20% - アクセント 3 7" xfId="124"/>
+    <cellStyle name="20% - アクセント 4" xfId="75" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="5"/>
+    <cellStyle name="20% - アクセント 4 3" xfId="97"/>
+    <cellStyle name="20% - アクセント 4 4" xfId="98"/>
+    <cellStyle name="20% - アクセント 4 5" xfId="125"/>
+    <cellStyle name="20% - アクセント 4 6" xfId="126"/>
+    <cellStyle name="20% - アクセント 4 7" xfId="127"/>
+    <cellStyle name="20% - アクセント 5" xfId="79" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="6"/>
+    <cellStyle name="20% - アクセント 5 3" xfId="99"/>
+    <cellStyle name="20% - アクセント 5 4" xfId="100"/>
+    <cellStyle name="20% - アクセント 5 5" xfId="128"/>
+    <cellStyle name="20% - アクセント 5 6" xfId="129"/>
+    <cellStyle name="20% - アクセント 5 7" xfId="130"/>
+    <cellStyle name="20% - アクセント 6" xfId="83" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="7"/>
+    <cellStyle name="20% - アクセント 6 3" xfId="101"/>
+    <cellStyle name="20% - アクセント 6 4" xfId="102"/>
+    <cellStyle name="20% - アクセント 6 5" xfId="131"/>
+    <cellStyle name="20% - アクセント 6 6" xfId="132"/>
+    <cellStyle name="20% - アクセント 6 7" xfId="133"/>
+    <cellStyle name="40% - アクセント 1" xfId="64" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="8"/>
+    <cellStyle name="40% - アクセント 1 3" xfId="103"/>
+    <cellStyle name="40% - アクセント 1 4" xfId="104"/>
+    <cellStyle name="40% - アクセント 1 5" xfId="134"/>
+    <cellStyle name="40% - アクセント 1 6" xfId="135"/>
+    <cellStyle name="40% - アクセント 1 7" xfId="136"/>
+    <cellStyle name="40% - アクセント 2" xfId="68" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="9"/>
+    <cellStyle name="40% - アクセント 2 3" xfId="105"/>
+    <cellStyle name="40% - アクセント 2 4" xfId="106"/>
+    <cellStyle name="40% - アクセント 2 5" xfId="137"/>
+    <cellStyle name="40% - アクセント 2 6" xfId="138"/>
+    <cellStyle name="40% - アクセント 2 7" xfId="139"/>
+    <cellStyle name="40% - アクセント 3" xfId="72" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="10"/>
+    <cellStyle name="40% - アクセント 3 3" xfId="107"/>
+    <cellStyle name="40% - アクセント 3 4" xfId="108"/>
+    <cellStyle name="40% - アクセント 3 5" xfId="140"/>
+    <cellStyle name="40% - アクセント 3 6" xfId="141"/>
+    <cellStyle name="40% - アクセント 3 7" xfId="142"/>
+    <cellStyle name="40% - アクセント 4" xfId="76" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="11"/>
+    <cellStyle name="40% - アクセント 4 3" xfId="109"/>
+    <cellStyle name="40% - アクセント 4 4" xfId="110"/>
+    <cellStyle name="40% - アクセント 4 5" xfId="143"/>
+    <cellStyle name="40% - アクセント 4 6" xfId="144"/>
+    <cellStyle name="40% - アクセント 4 7" xfId="145"/>
+    <cellStyle name="40% - アクセント 5" xfId="80" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="12"/>
+    <cellStyle name="40% - アクセント 5 3" xfId="111"/>
+    <cellStyle name="40% - アクセント 5 4" xfId="112"/>
+    <cellStyle name="40% - アクセント 5 5" xfId="146"/>
+    <cellStyle name="40% - アクセント 5 6" xfId="147"/>
+    <cellStyle name="40% - アクセント 5 7" xfId="148"/>
+    <cellStyle name="40% - アクセント 6" xfId="84" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="13"/>
+    <cellStyle name="40% - アクセント 6 3" xfId="113"/>
+    <cellStyle name="40% - アクセント 6 4" xfId="114"/>
+    <cellStyle name="40% - アクセント 6 5" xfId="149"/>
+    <cellStyle name="40% - アクセント 6 6" xfId="150"/>
+    <cellStyle name="40% - アクセント 6 7" xfId="151"/>
+    <cellStyle name="60% - アクセント 1" xfId="65" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="14"/>
+    <cellStyle name="60% - アクセント 2" xfId="69" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="15"/>
+    <cellStyle name="60% - アクセント 3" xfId="73" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="16"/>
+    <cellStyle name="60% - アクセント 4" xfId="77" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="17"/>
+    <cellStyle name="60% - アクセント 5" xfId="81" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="18"/>
+    <cellStyle name="60% - アクセント 6" xfId="85" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="19"/>
+    <cellStyle name="アクセント 1" xfId="62" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 1 2" xfId="20"/>
+    <cellStyle name="アクセント 2" xfId="66" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 2 2" xfId="21"/>
+    <cellStyle name="アクセント 3" xfId="70" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 3 2" xfId="22"/>
+    <cellStyle name="アクセント 4" xfId="74" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 4 2" xfId="23"/>
+    <cellStyle name="アクセント 5" xfId="78" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 5 2" xfId="24"/>
+    <cellStyle name="アクセント 6" xfId="82" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="アクセント 6 2" xfId="25"/>
+    <cellStyle name="タイトル" xfId="46" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="タイトル 2" xfId="26"/>
+    <cellStyle name="チェック セル" xfId="58" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="チェック セル 2" xfId="27"/>
+    <cellStyle name="チェックシート" xfId="1"/>
+    <cellStyle name="どちらでもない" xfId="53" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="どちらでもない 2" xfId="28"/>
+    <cellStyle name="メモ 2" xfId="29"/>
+    <cellStyle name="メモ 3" xfId="30"/>
+    <cellStyle name="メモ 4" xfId="87"/>
+    <cellStyle name="メモ 5" xfId="115"/>
+    <cellStyle name="メモ 6" xfId="152"/>
+    <cellStyle name="メモ 7" xfId="153"/>
+    <cellStyle name="メモ 8" xfId="154"/>
+    <cellStyle name="リンク セル" xfId="57" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="リンク セル 2" xfId="31"/>
+    <cellStyle name="悪い" xfId="52" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="悪い 2" xfId="32"/>
+    <cellStyle name="計算" xfId="56" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="計算 2" xfId="33"/>
+    <cellStyle name="警告文" xfId="59" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="警告文 2" xfId="34"/>
+    <cellStyle name="見出し 1" xfId="47" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 1 2" xfId="35"/>
+    <cellStyle name="見出し 2" xfId="48" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 2 2" xfId="36"/>
+    <cellStyle name="見出し 3" xfId="49" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 3 2" xfId="37"/>
+    <cellStyle name="見出し 4" xfId="50" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="見出し 4 2" xfId="38"/>
+    <cellStyle name="集計" xfId="61" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="集計 2" xfId="39"/>
+    <cellStyle name="出力" xfId="55" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="出力 2" xfId="40"/>
+    <cellStyle name="説明文" xfId="60" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="説明文 2" xfId="41"/>
+    <cellStyle name="入力" xfId="54" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="入力 2" xfId="42"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="43"/>
+    <cellStyle name="標準 2 2" xfId="89"/>
+    <cellStyle name="標準 3" xfId="44"/>
+    <cellStyle name="標準 4" xfId="86"/>
+    <cellStyle name="標準 5" xfId="88"/>
+    <cellStyle name="標準 5 2" xfId="90"/>
+    <cellStyle name="標準 6" xfId="155"/>
+    <cellStyle name="標準 7" xfId="156"/>
+    <cellStyle name="標準 8" xfId="157"/>
+    <cellStyle name="良い" xfId="51" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="良い 2" xfId="45"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1663,7 +1662,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1726,7 +1725,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2636,7 +2635,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="641494376"/>
@@ -2721,7 +2720,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2753,7 +2752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="641493392"/>
@@ -2800,7 +2799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2825,7 +2824,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3421,7 +3420,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3496,23 +3495,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3548,23 +3530,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3740,20 +3705,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="11" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="24" t="s">
         <v>8</v>
       </c>
@@ -3764,7 +3729,7 @@
       <c r="G1" s="24"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>60</v>
       </c>
@@ -3785,7 +3750,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3810,7 +3775,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3826,7 +3791,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3842,7 +3807,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3853,7 +3818,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3867,7 +3832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3878,7 +3843,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3889,7 +3854,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3900,7 +3865,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3911,7 +3876,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3922,7 +3887,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3933,7 +3898,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3944,7 +3909,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3955,7 +3920,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3966,7 +3931,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3977,7 +3942,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3988,7 +3953,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3999,7 +3964,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4010,7 +3975,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -4021,7 +3986,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4032,7 +3997,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4043,7 +4008,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4054,7 +4019,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -4065,7 +4030,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -4076,7 +4041,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -4087,7 +4052,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -4098,7 +4063,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -4109,7 +4074,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -4120,7 +4085,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -4131,7 +4096,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -4142,7 +4107,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -4153,7 +4118,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -4164,7 +4129,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -4175,7 +4140,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -4186,7 +4151,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -4197,7 +4162,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -4208,7 +4173,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -4219,7 +4184,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4230,7 +4195,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4241,7 +4206,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4252,7 +4217,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -4263,7 +4228,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -4274,7 +4239,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -4285,7 +4250,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -4296,7 +4261,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -4307,7 +4272,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -4318,7 +4283,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -4329,7 +4294,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -4340,7 +4305,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -4351,7 +4316,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -4362,7 +4327,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -4373,7 +4338,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -4384,7 +4349,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -4395,7 +4360,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -4406,7 +4371,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -4417,7 +4382,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -4428,7 +4393,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -4439,7 +4404,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -4450,7 +4415,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -4461,7 +4426,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -4472,7 +4437,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -4483,7 +4448,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
@@ -4494,7 +4459,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -4505,7 +4470,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -4516,7 +4481,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -4527,7 +4492,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -4538,7 +4503,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -4549,7 +4514,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -4560,7 +4525,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -4571,7 +4536,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
@@ -4582,7 +4547,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
@@ -4593,7 +4558,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
@@ -4604,7 +4569,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -4615,7 +4580,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
@@ -4626,7 +4591,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
@@ -4637,7 +4602,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -4648,7 +4613,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
@@ -4659,7 +4624,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
@@ -4670,7 +4635,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
@@ -4681,7 +4646,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
@@ -4692,7 +4657,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
@@ -4703,7 +4668,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
@@ -4714,7 +4679,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
@@ -4725,7 +4690,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
@@ -4736,7 +4701,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
@@ -4747,7 +4712,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -4758,7 +4723,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
@@ -4769,7 +4734,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
@@ -4780,7 +4745,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
@@ -4791,7 +4756,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
@@ -4802,7 +4767,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -4813,7 +4778,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>91</v>
       </c>
@@ -4824,7 +4789,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>92</v>
       </c>
@@ -4835,7 +4800,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
@@ -4846,7 +4811,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>94</v>
       </c>
@@ -4857,7 +4822,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
@@ -4868,7 +4833,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>96</v>
       </c>
@@ -4879,7 +4844,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>97</v>
       </c>
@@ -4890,7 +4855,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>98</v>
       </c>
@@ -4901,7 +4866,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>99</v>
       </c>
@@ -4912,7 +4877,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>100</v>
       </c>
@@ -4923,7 +4888,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>101</v>
       </c>
@@ -4934,7 +4899,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>102</v>
       </c>
@@ -4945,7 +4910,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>103</v>
       </c>
@@ -4956,7 +4921,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>104</v>
       </c>
@@ -4967,7 +4932,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>105</v>
       </c>
@@ -4978,7 +4943,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>106</v>
       </c>
@@ -4989,7 +4954,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>107</v>
       </c>
@@ -5000,7 +4965,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>108</v>
       </c>
@@ -5011,7 +4976,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>109</v>
       </c>
@@ -5022,7 +4987,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>110</v>
       </c>
@@ -5033,7 +4998,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>111</v>
       </c>
@@ -5044,7 +5009,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>112</v>
       </c>
@@ -5055,7 +5020,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>113</v>
       </c>
@@ -5066,7 +5031,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>114</v>
       </c>
@@ -5077,7 +5042,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>115</v>
       </c>
@@ -5088,7 +5053,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>116</v>
       </c>
@@ -5099,7 +5064,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>117</v>
       </c>
@@ -5110,7 +5075,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>118</v>
       </c>
@@ -5121,7 +5086,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>119</v>
       </c>
@@ -5132,7 +5097,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>120</v>
       </c>
@@ -5143,7 +5108,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>121</v>
       </c>
@@ -5154,7 +5119,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>122</v>
       </c>
@@ -5165,7 +5130,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>123</v>
       </c>
@@ -5176,7 +5141,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>124</v>
       </c>
@@ -5187,7 +5152,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>125</v>
       </c>
@@ -5198,7 +5163,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>126</v>
       </c>
@@ -5209,7 +5174,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>127</v>
       </c>
@@ -5220,7 +5185,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>128</v>
       </c>
@@ -5231,7 +5196,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>129</v>
       </c>
@@ -5242,7 +5207,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>130</v>
       </c>
@@ -5253,7 +5218,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>131</v>
       </c>
@@ -5264,7 +5229,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>132</v>
       </c>
@@ -5275,7 +5240,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>133</v>
       </c>
@@ -5286,7 +5251,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>134</v>
       </c>
@@ -5297,7 +5262,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>135</v>
       </c>
@@ -5308,7 +5273,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>136</v>
       </c>
@@ -5319,7 +5284,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>137</v>
       </c>
@@ -5330,7 +5295,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>138</v>
       </c>
@@ -5341,7 +5306,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>139</v>
       </c>
@@ -5352,7 +5317,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>140</v>
       </c>
@@ -5363,7 +5328,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>141</v>
       </c>
@@ -5374,7 +5339,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>142</v>
       </c>
@@ -5385,7 +5350,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>143</v>
       </c>
@@ -5396,7 +5361,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>144</v>
       </c>
@@ -5407,7 +5372,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>145</v>
       </c>
@@ -5418,7 +5383,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>146</v>
       </c>
@@ -5429,7 +5394,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>147</v>
       </c>
@@ -5440,7 +5405,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>148</v>
       </c>
@@ -5451,7 +5416,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>149</v>
       </c>
@@ -5462,7 +5427,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>150</v>
       </c>
@@ -5473,7 +5438,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>151</v>
       </c>
@@ -5484,7 +5449,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>152</v>
       </c>
@@ -5495,7 +5460,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>153</v>
       </c>
@@ -5506,7 +5471,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>154</v>
       </c>
@@ -5517,7 +5482,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>155</v>
       </c>
@@ -5528,7 +5493,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>156</v>
       </c>
@@ -5539,7 +5504,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>157</v>
       </c>
@@ -5550,7 +5515,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>158</v>
       </c>
@@ -5561,7 +5526,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>159</v>
       </c>
@@ -5572,7 +5537,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>160</v>
       </c>
@@ -5583,7 +5548,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>161</v>
       </c>
@@ -5594,7 +5559,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>162</v>
       </c>
@@ -5605,7 +5570,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>163</v>
       </c>
@@ -5616,7 +5581,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>164</v>
       </c>
@@ -5627,7 +5592,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>165</v>
       </c>
@@ -5638,7 +5603,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>166</v>
       </c>
@@ -5649,7 +5614,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>167</v>
       </c>
@@ -5660,7 +5625,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>168</v>
       </c>
@@ -5671,7 +5636,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>169</v>
       </c>
@@ -5682,7 +5647,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>170</v>
       </c>
@@ -5693,7 +5658,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>171</v>
       </c>
@@ -5704,7 +5669,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>172</v>
       </c>
@@ -5715,7 +5680,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>173</v>
       </c>
@@ -5726,7 +5691,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>174</v>
       </c>
@@ -5737,7 +5702,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>175</v>
       </c>
@@ -5748,7 +5713,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>176</v>
       </c>
@@ -5759,7 +5724,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>177</v>
       </c>
@@ -5770,7 +5735,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>178</v>
       </c>
@@ -5781,7 +5746,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>179</v>
       </c>
@@ -5792,7 +5757,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>180</v>
       </c>
@@ -5803,7 +5768,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>181</v>
       </c>
@@ -5814,7 +5779,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>182</v>
       </c>
@@ -5825,7 +5790,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>183</v>
       </c>
@@ -5836,7 +5801,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>184</v>
       </c>
@@ -5847,7 +5812,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>185</v>
       </c>
@@ -5858,7 +5823,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>186</v>
       </c>
@@ -5869,7 +5834,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>187</v>
       </c>
@@ -5880,7 +5845,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>188</v>
       </c>
@@ -5891,7 +5856,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>189</v>
       </c>
@@ -5902,7 +5867,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>190</v>
       </c>
@@ -5913,7 +5878,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>191</v>
       </c>
@@ -5924,7 +5889,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>192</v>
       </c>
@@ -5935,7 +5900,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>193</v>
       </c>
@@ -5946,7 +5911,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>194</v>
       </c>
@@ -5957,7 +5922,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>195</v>
       </c>
@@ -5968,7 +5933,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>196</v>
       </c>
@@ -5979,7 +5944,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>197</v>
       </c>
@@ -5990,7 +5955,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>198</v>
       </c>
@@ -6001,7 +5966,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>199</v>
       </c>
@@ -6012,7 +5977,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>200</v>
       </c>
@@ -6023,7 +5988,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>201</v>
       </c>
@@ -6034,7 +5999,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>202</v>
       </c>
@@ -6045,7 +6010,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>203</v>
       </c>
@@ -6056,7 +6021,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>204</v>
       </c>
@@ -6067,7 +6032,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>205</v>
       </c>
@@ -6078,7 +6043,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>206</v>
       </c>
@@ -6089,7 +6054,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>207</v>
       </c>
@@ -6100,7 +6065,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>208</v>
       </c>
@@ -6111,7 +6076,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>209</v>
       </c>
@@ -6122,7 +6087,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>210</v>
       </c>
@@ -6133,7 +6098,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>211</v>
       </c>
@@ -6144,7 +6109,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>212</v>
       </c>
@@ -6155,7 +6120,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>213</v>
       </c>
@@ -6166,7 +6131,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>214</v>
       </c>
@@ -6177,7 +6142,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>215</v>
       </c>
@@ -6188,7 +6153,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>216</v>
       </c>
@@ -6199,7 +6164,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>217</v>
       </c>
@@ -6210,7 +6175,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>218</v>
       </c>
@@ -6221,7 +6186,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>219</v>
       </c>
@@ -6232,7 +6197,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>220</v>
       </c>
@@ -6243,7 +6208,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>221</v>
       </c>
@@ -6254,7 +6219,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>222</v>
       </c>
@@ -6265,7 +6230,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>223</v>
       </c>
@@ -6276,7 +6241,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>224</v>
       </c>
@@ -6287,7 +6252,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>225</v>
       </c>
@@ -6298,7 +6263,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>226</v>
       </c>
@@ -6309,7 +6274,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>227</v>
       </c>
@@ -6320,7 +6285,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>228</v>
       </c>
@@ -6331,7 +6296,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>229</v>
       </c>
@@ -6342,7 +6307,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>230</v>
       </c>
@@ -6353,7 +6318,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>231</v>
       </c>
@@ -6364,7 +6329,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>232</v>
       </c>
@@ -6375,7 +6340,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>233</v>
       </c>
@@ -6386,7 +6351,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>234</v>
       </c>
@@ -6397,7 +6362,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>235</v>
       </c>
@@ -6408,7 +6373,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>236</v>
       </c>
@@ -6419,7 +6384,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>237</v>
       </c>
@@ -6430,7 +6395,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>238</v>
       </c>
@@ -6441,7 +6406,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>239</v>
       </c>
@@ -6452,7 +6417,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>240</v>
       </c>
@@ -6463,7 +6428,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>241</v>
       </c>
@@ -6474,7 +6439,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>242</v>
       </c>
@@ -6485,7 +6450,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>243</v>
       </c>
@@ -6496,7 +6461,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>244</v>
       </c>
@@ -6507,7 +6472,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>245</v>
       </c>
@@ -6518,7 +6483,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>246</v>
       </c>
@@ -6529,7 +6494,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>247</v>
       </c>
@@ -6540,7 +6505,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>248</v>
       </c>
@@ -6551,7 +6516,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>249</v>
       </c>
@@ -6562,7 +6527,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>250</v>
       </c>
@@ -6573,7 +6538,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>251</v>
       </c>
@@ -6584,7 +6549,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>252</v>
       </c>
@@ -6595,7 +6560,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>253</v>
       </c>
@@ -6606,7 +6571,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>254</v>
       </c>
@@ -6617,7 +6582,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>255</v>
       </c>
@@ -6628,7 +6593,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>256</v>
       </c>
@@ -6639,7 +6604,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>257</v>
       </c>
@@ -6650,7 +6615,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>258</v>
       </c>
@@ -6661,7 +6626,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>259</v>
       </c>
@@ -6672,7 +6637,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>260</v>
       </c>
@@ -6683,7 +6648,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>261</v>
       </c>
@@ -6694,7 +6659,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>262</v>
       </c>
@@ -6705,7 +6670,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>263</v>
       </c>
@@ -6716,7 +6681,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>264</v>
       </c>
@@ -6727,7 +6692,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>265</v>
       </c>
@@ -6738,7 +6703,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>266</v>
       </c>
@@ -6749,7 +6714,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>267</v>
       </c>
@@ -6760,7 +6725,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>268</v>
       </c>
@@ -6771,7 +6736,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>269</v>
       </c>
@@ -6782,7 +6747,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>270</v>
       </c>
@@ -6793,7 +6758,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>271</v>
       </c>
@@ -6804,7 +6769,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>272</v>
       </c>
@@ -6815,7 +6780,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>273</v>
       </c>
@@ -6826,7 +6791,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>274</v>
       </c>
@@ -6837,7 +6802,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>275</v>
       </c>
@@ -6848,7 +6813,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>276</v>
       </c>
@@ -6859,7 +6824,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>277</v>
       </c>
@@ -6870,7 +6835,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>278</v>
       </c>
@@ -6881,7 +6846,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>279</v>
       </c>
@@ -6892,7 +6857,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>280</v>
       </c>
@@ -6903,7 +6868,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>281</v>
       </c>
@@ -6914,7 +6879,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>282</v>
       </c>
@@ -6925,7 +6890,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>283</v>
       </c>
@@ -6936,7 +6901,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>284</v>
       </c>
@@ -6947,7 +6912,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>285</v>
       </c>
@@ -6958,7 +6923,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>286</v>
       </c>
@@ -6969,7 +6934,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>287</v>
       </c>
@@ -6980,7 +6945,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>288</v>
       </c>
@@ -6991,7 +6956,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>289</v>
       </c>
@@ -7002,7 +6967,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>290</v>
       </c>
@@ -7013,7 +6978,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>291</v>
       </c>
@@ -7024,7 +6989,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>292</v>
       </c>
@@ -7035,7 +7000,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>293</v>
       </c>
@@ -7046,7 +7011,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>294</v>
       </c>
@@ -7057,7 +7022,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>295</v>
       </c>
@@ -7068,7 +7033,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>296</v>
       </c>
@@ -7079,7 +7044,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>297</v>
       </c>
@@ -7090,7 +7055,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>298</v>
       </c>
@@ -7101,7 +7066,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>299</v>
       </c>
@@ -7112,7 +7077,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>300</v>
       </c>
@@ -7135,18 +7100,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CU515"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="55" max="56" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" ht="15">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B1" s="24" t="s">
         <v>8</v>
       </c>
@@ -7158,7 +7123,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:99" ht="15">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>60</v>
       </c>
@@ -7219,7 +7184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -7248,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:99" ht="15">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7336,7 +7301,7 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
     </row>
-    <row r="5" spans="1:99">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7579,7 +7544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:99">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7919,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:99">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8282,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:99">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8645,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:99">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9008,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:99">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9371,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:99">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9486,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:99">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9683,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:99">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9880,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:99">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10108,7 +10073,7 @@
       <c r="BU14" s="7"/>
       <c r="BV14" s="7"/>
     </row>
-    <row r="15" spans="1:99">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10365,7 +10330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:99">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -10645,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:74">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -10760,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:74">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -10916,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:74">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -11034,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:74" ht="15">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -11205,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:74">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -11357,7 +11322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:74">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -11554,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:74">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -11782,7 +11747,7 @@
       <c r="BU23" s="7"/>
       <c r="BV23" s="7"/>
     </row>
-    <row r="24" spans="1:74">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -12039,7 +12004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:74">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -12319,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:74">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -12599,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:74">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -12714,7 +12679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:74">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -12829,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:74">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -13109,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:74">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -13306,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:74">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -13503,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:74">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -13731,7 +13696,7 @@
       <c r="BU32" s="7"/>
       <c r="BV32" s="7"/>
     </row>
-    <row r="33" spans="1:77">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -13988,7 +13953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:77">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -14103,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:77">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -14259,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:77">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -14377,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:77" ht="15">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -14548,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:77">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -14783,7 +14748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:77">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -14980,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:77">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -15267,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:77">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -15554,7 +15519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:77">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -15751,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:77">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -15948,7 +15913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:77">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -15983,7 +15948,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:77">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -16208,7 +16173,7 @@
       <c r="BU45" s="7"/>
       <c r="BV45" s="7"/>
     </row>
-    <row r="46" spans="1:77">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -16465,7 +16430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:77">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -16745,7 +16710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:77">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -17025,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:77">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -17312,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:77">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -17434,7 +17399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:77">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -17466,7 +17431,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:77">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -17501,7 +17466,7 @@
       </c>
       <c r="AF52" s="11"/>
     </row>
-    <row r="53" spans="1:77" ht="15">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -17589,7 +17554,7 @@
       <c r="AY53" s="7"/>
       <c r="AZ53" s="7"/>
     </row>
-    <row r="54" spans="1:77">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -17741,7 +17706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:77">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -17938,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:77">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -18135,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:77">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -18332,7 +18297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:77">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -18529,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:77">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -18726,7 +18691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:77">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -18758,7 +18723,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:77">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -18955,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:77">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -19152,7 +19117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:77">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -19349,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:77">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
@@ -19546,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -19743,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -19775,7 +19740,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -19807,7 +19772,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -19842,7 +19807,7 @@
       </c>
       <c r="AF68" s="11"/>
     </row>
-    <row r="69" spans="1:52" ht="15">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -19930,7 +19895,7 @@
       <c r="AY69" s="7"/>
       <c r="AZ69" s="7"/>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -20082,7 +20047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -20279,7 +20244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
@@ -20476,7 +20441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
@@ -20673,7 +20638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
@@ -20870,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -21067,7 +21032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
@@ -21099,7 +21064,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
@@ -21296,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -21493,7 +21458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
@@ -21690,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
@@ -21887,7 +21852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
@@ -22084,7 +22049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
@@ -22116,7 +22081,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
@@ -22148,7 +22113,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
@@ -22182,7 +22147,7 @@
       <c r="AE84" s="9"/>
       <c r="AF84" s="9"/>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
@@ -22216,7 +22181,7 @@
       <c r="AE85" s="9"/>
       <c r="AF85" s="9"/>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
@@ -22250,7 +22215,7 @@
       <c r="AE86" s="9"/>
       <c r="AF86" s="9"/>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
@@ -22284,7 +22249,7 @@
       <c r="AE87" s="9"/>
       <c r="AF87" s="9"/>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -22318,7 +22283,7 @@
       <c r="AE88" s="9"/>
       <c r="AF88" s="9"/>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
@@ -22350,7 +22315,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
@@ -22382,7 +22347,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
@@ -22414,7 +22379,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
@@ -22446,7 +22411,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -22478,7 +22443,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>91</v>
       </c>
@@ -22510,7 +22475,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>92</v>
       </c>
@@ -22542,7 +22507,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
@@ -22574,7 +22539,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>94</v>
       </c>
@@ -22606,7 +22571,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
@@ -22638,7 +22603,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>96</v>
       </c>
@@ -22670,7 +22635,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>97</v>
       </c>
@@ -22702,7 +22667,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>98</v>
       </c>
@@ -22734,7 +22699,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>99</v>
       </c>
@@ -22766,7 +22731,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>100</v>
       </c>
@@ -22798,7 +22763,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>101</v>
       </c>
@@ -22830,7 +22795,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>102</v>
       </c>
@@ -22862,7 +22827,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>103</v>
       </c>
@@ -22894,7 +22859,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>104</v>
       </c>
@@ -22926,7 +22891,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>105</v>
       </c>
@@ -22958,7 +22923,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>106</v>
       </c>
@@ -22990,7 +22955,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>107</v>
       </c>
@@ -23022,7 +22987,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>108</v>
       </c>
@@ -23054,7 +23019,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>109</v>
       </c>
@@ -23086,7 +23051,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>110</v>
       </c>
@@ -23118,7 +23083,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>111</v>
       </c>
@@ -23150,7 +23115,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>112</v>
       </c>
@@ -23182,7 +23147,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>113</v>
       </c>
@@ -23214,7 +23179,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>114</v>
       </c>
@@ -23246,7 +23211,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>115</v>
       </c>
@@ -23278,7 +23243,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>116</v>
       </c>
@@ -23310,7 +23275,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>117</v>
       </c>
@@ -23342,7 +23307,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>118</v>
       </c>
@@ -23374,7 +23339,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>119</v>
       </c>
@@ -23406,7 +23371,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>120</v>
       </c>
@@ -23438,7 +23403,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>121</v>
       </c>
@@ -23469,7 +23434,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>122</v>
       </c>
@@ -23500,7 +23465,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>123</v>
       </c>
@@ -23531,7 +23496,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>124</v>
       </c>
@@ -23562,7 +23527,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>125</v>
       </c>
@@ -23593,7 +23558,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>126</v>
       </c>
@@ -23625,7 +23590,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>127</v>
       </c>
@@ -23657,7 +23622,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>128</v>
       </c>
@@ -23689,7 +23654,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>129</v>
       </c>
@@ -23721,7 +23686,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>130</v>
       </c>
@@ -23753,7 +23718,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>131</v>
       </c>
@@ -23785,7 +23750,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>132</v>
       </c>
@@ -23817,7 +23782,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>133</v>
       </c>
@@ -23849,7 +23814,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>134</v>
       </c>
@@ -23881,7 +23846,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>135</v>
       </c>
@@ -23913,7 +23878,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>136</v>
       </c>
@@ -23945,7 +23910,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>137</v>
       </c>
@@ -23977,7 +23942,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>138</v>
       </c>
@@ -24009,7 +23974,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>139</v>
       </c>
@@ -24041,7 +24006,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>140</v>
       </c>
@@ -24073,7 +24038,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>141</v>
       </c>
@@ -24105,7 +24070,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>142</v>
       </c>
@@ -24137,7 +24102,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>143</v>
       </c>
@@ -24169,7 +24134,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>144</v>
       </c>
@@ -24201,7 +24166,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>145</v>
       </c>
@@ -24233,7 +24198,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>146</v>
       </c>
@@ -24265,7 +24230,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>147</v>
       </c>
@@ -24297,7 +24262,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>148</v>
       </c>
@@ -24329,7 +24294,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>149</v>
       </c>
@@ -24361,7 +24326,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>150</v>
       </c>
@@ -24393,7 +24358,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>151</v>
       </c>
@@ -24425,7 +24390,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>152</v>
       </c>
@@ -24457,7 +24422,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>153</v>
       </c>
@@ -24489,7 +24454,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>154</v>
       </c>
@@ -24521,7 +24486,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>155</v>
       </c>
@@ -24553,7 +24518,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>156</v>
       </c>
@@ -24585,7 +24550,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>157</v>
       </c>
@@ -24617,7 +24582,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>158</v>
       </c>
@@ -24649,7 +24614,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>159</v>
       </c>
@@ -24681,7 +24646,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>160</v>
       </c>
@@ -24713,7 +24678,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>161</v>
       </c>
@@ -24745,7 +24710,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>162</v>
       </c>
@@ -24777,7 +24742,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>163</v>
       </c>
@@ -24809,7 +24774,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>164</v>
       </c>
@@ -24841,7 +24806,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>165</v>
       </c>
@@ -24873,7 +24838,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>166</v>
       </c>
@@ -24905,7 +24870,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>167</v>
       </c>
@@ -24937,7 +24902,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>168</v>
       </c>
@@ -24969,7 +24934,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>169</v>
       </c>
@@ -25001,7 +24966,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>170</v>
       </c>
@@ -25033,7 +24998,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>171</v>
       </c>
@@ -25065,7 +25030,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>172</v>
       </c>
@@ -25097,7 +25062,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>173</v>
       </c>
@@ -25129,7 +25094,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>174</v>
       </c>
@@ -25161,7 +25126,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>175</v>
       </c>
@@ -25193,7 +25158,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>176</v>
       </c>
@@ -25225,7 +25190,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>177</v>
       </c>
@@ -25257,7 +25222,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>178</v>
       </c>
@@ -25289,7 +25254,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>179</v>
       </c>
@@ -25321,7 +25286,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>180</v>
       </c>
@@ -25353,7 +25318,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>181</v>
       </c>
@@ -25384,7 +25349,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>182</v>
       </c>
@@ -25415,7 +25380,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>183</v>
       </c>
@@ -25446,7 +25411,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>184</v>
       </c>
@@ -25477,7 +25442,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>185</v>
       </c>
@@ -25508,7 +25473,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>186</v>
       </c>
@@ -25540,7 +25505,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>187</v>
       </c>
@@ -25572,7 +25537,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>188</v>
       </c>
@@ -25604,7 +25569,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>189</v>
       </c>
@@ -25636,7 +25601,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>190</v>
       </c>
@@ -25668,7 +25633,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>191</v>
       </c>
@@ -25700,7 +25665,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>192</v>
       </c>
@@ -25732,7 +25697,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>193</v>
       </c>
@@ -25764,7 +25729,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>194</v>
       </c>
@@ -25796,7 +25761,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>195</v>
       </c>
@@ -25828,7 +25793,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>196</v>
       </c>
@@ -25860,7 +25825,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>197</v>
       </c>
@@ -25892,7 +25857,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>198</v>
       </c>
@@ -25924,7 +25889,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>199</v>
       </c>
@@ -25956,7 +25921,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>200</v>
       </c>
@@ -25988,7 +25953,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>201</v>
       </c>
@@ -26020,7 +25985,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>202</v>
       </c>
@@ -26052,7 +26017,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>203</v>
       </c>
@@ -26084,7 +26049,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>204</v>
       </c>
@@ -26116,7 +26081,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>205</v>
       </c>
@@ -26148,7 +26113,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>206</v>
       </c>
@@ -26180,7 +26145,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>207</v>
       </c>
@@ -26212,7 +26177,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>208</v>
       </c>
@@ -26244,7 +26209,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>209</v>
       </c>
@@ -26276,7 +26241,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>210</v>
       </c>
@@ -26308,7 +26273,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>211</v>
       </c>
@@ -26340,7 +26305,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>212</v>
       </c>
@@ -26372,7 +26337,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>213</v>
       </c>
@@ -26404,7 +26369,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>214</v>
       </c>
@@ -26436,7 +26401,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>215</v>
       </c>
@@ -26468,7 +26433,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>216</v>
       </c>
@@ -26500,7 +26465,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>217</v>
       </c>
@@ -26532,7 +26497,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>218</v>
       </c>
@@ -26564,7 +26529,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>219</v>
       </c>
@@ -26596,7 +26561,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>220</v>
       </c>
@@ -26628,7 +26593,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>221</v>
       </c>
@@ -26660,7 +26625,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>222</v>
       </c>
@@ -26692,7 +26657,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>223</v>
       </c>
@@ -26724,7 +26689,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>224</v>
       </c>
@@ -26756,7 +26721,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>225</v>
       </c>
@@ -26788,7 +26753,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>226</v>
       </c>
@@ -26820,7 +26785,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>227</v>
       </c>
@@ -26852,7 +26817,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>228</v>
       </c>
@@ -26884,7 +26849,7 @@
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>229</v>
       </c>
@@ -26916,7 +26881,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>230</v>
       </c>
@@ -26948,7 +26913,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>231</v>
       </c>
@@ -26980,7 +26945,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>232</v>
       </c>
@@ -27012,7 +26977,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>233</v>
       </c>
@@ -27044,7 +27009,7 @@
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>234</v>
       </c>
@@ -27076,7 +27041,7 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>235</v>
       </c>
@@ -27108,7 +27073,7 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>236</v>
       </c>
@@ -27140,7 +27105,7 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>237</v>
       </c>
@@ -27172,7 +27137,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>238</v>
       </c>
@@ -27204,7 +27169,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>239</v>
       </c>
@@ -27236,7 +27201,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>240</v>
       </c>
@@ -27268,7 +27233,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>241</v>
       </c>
@@ -27299,7 +27264,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>242</v>
       </c>
@@ -27330,7 +27295,7 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>243</v>
       </c>
@@ -27361,7 +27326,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>244</v>
       </c>
@@ -27392,7 +27357,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>245</v>
       </c>
@@ -27423,7 +27388,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>246</v>
       </c>
@@ -27455,7 +27420,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>247</v>
       </c>
@@ -27487,7 +27452,7 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>248</v>
       </c>
@@ -27519,7 +27484,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>249</v>
       </c>
@@ -27551,7 +27516,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>250</v>
       </c>
@@ -27583,7 +27548,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>251</v>
       </c>
@@ -27615,7 +27580,7 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>252</v>
       </c>
@@ -27647,7 +27612,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>253</v>
       </c>
@@ -27679,7 +27644,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>254</v>
       </c>
@@ -27711,7 +27676,7 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>255</v>
       </c>
@@ -27743,7 +27708,7 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>256</v>
       </c>
@@ -27775,7 +27740,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>257</v>
       </c>
@@ -27807,7 +27772,7 @@
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>258</v>
       </c>
@@ -27839,7 +27804,7 @@
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>259</v>
       </c>
@@ -27871,7 +27836,7 @@
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>260</v>
       </c>
@@ -27903,7 +27868,7 @@
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>261</v>
       </c>
@@ -27935,7 +27900,7 @@
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>262</v>
       </c>
@@ -27967,7 +27932,7 @@
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>263</v>
       </c>
@@ -27999,7 +27964,7 @@
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>264</v>
       </c>
@@ -28031,7 +27996,7 @@
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>265</v>
       </c>
@@ -28063,7 +28028,7 @@
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>266</v>
       </c>
@@ -28095,7 +28060,7 @@
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>267</v>
       </c>
@@ -28127,7 +28092,7 @@
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>268</v>
       </c>
@@ -28159,7 +28124,7 @@
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>269</v>
       </c>
@@ -28191,7 +28156,7 @@
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>270</v>
       </c>
@@ -28223,7 +28188,7 @@
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>271</v>
       </c>
@@ -28255,7 +28220,7 @@
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>272</v>
       </c>
@@ -28287,7 +28252,7 @@
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>273</v>
       </c>
@@ -28319,7 +28284,7 @@
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>274</v>
       </c>
@@ -28351,7 +28316,7 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>275</v>
       </c>
@@ -28383,7 +28348,7 @@
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>276</v>
       </c>
@@ -28415,7 +28380,7 @@
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>277</v>
       </c>
@@ -28447,7 +28412,7 @@
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>278</v>
       </c>
@@ -28479,7 +28444,7 @@
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>279</v>
       </c>
@@ -28511,7 +28476,7 @@
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>280</v>
       </c>
@@ -28543,7 +28508,7 @@
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>281</v>
       </c>
@@ -28575,7 +28540,7 @@
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>282</v>
       </c>
@@ -28607,7 +28572,7 @@
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>283</v>
       </c>
@@ -28639,7 +28604,7 @@
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>284</v>
       </c>
@@ -28671,7 +28636,7 @@
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>285</v>
       </c>
@@ -28703,7 +28668,7 @@
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>286</v>
       </c>
@@ -28735,7 +28700,7 @@
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>287</v>
       </c>
@@ -28767,7 +28732,7 @@
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>288</v>
       </c>
@@ -28799,7 +28764,7 @@
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>289</v>
       </c>
@@ -28831,7 +28796,7 @@
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>290</v>
       </c>
@@ -28863,7 +28828,7 @@
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>291</v>
       </c>
@@ -28895,7 +28860,7 @@
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>292</v>
       </c>
@@ -28927,7 +28892,7 @@
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>293</v>
       </c>
@@ -28959,7 +28924,7 @@
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>294</v>
       </c>
@@ -28991,7 +28956,7 @@
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>295</v>
       </c>
@@ -29023,7 +28988,7 @@
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>296</v>
       </c>
@@ -29055,7 +29020,7 @@
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>297</v>
       </c>
@@ -29087,7 +29052,7 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>298</v>
       </c>
@@ -29119,7 +29084,7 @@
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>299</v>
       </c>
@@ -29151,7 +29116,7 @@
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>300</v>
       </c>
@@ -29183,7 +29148,7 @@
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -29194,7 +29159,7 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row r="305" spans="2:10">
+    <row r="305" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -29205,7 +29170,7 @@
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
     </row>
-    <row r="306" spans="2:10">
+    <row r="306" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -29216,7 +29181,7 @@
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
     </row>
-    <row r="307" spans="2:10">
+    <row r="307" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -29227,7 +29192,7 @@
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
     </row>
-    <row r="308" spans="2:10">
+    <row r="308" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -29238,7 +29203,7 @@
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
     </row>
-    <row r="309" spans="2:10">
+    <row r="309" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -29249,7 +29214,7 @@
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
     </row>
-    <row r="310" spans="2:10">
+    <row r="310" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -29260,7 +29225,7 @@
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
     </row>
-    <row r="311" spans="2:10">
+    <row r="311" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -29271,7 +29236,7 @@
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
     </row>
-    <row r="312" spans="2:10">
+    <row r="312" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -29282,7 +29247,7 @@
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
     </row>
-    <row r="313" spans="2:10">
+    <row r="313" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -29293,7 +29258,7 @@
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
     </row>
-    <row r="314" spans="2:10">
+    <row r="314" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -29304,7 +29269,7 @@
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
     </row>
-    <row r="315" spans="2:10">
+    <row r="315" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -29315,7 +29280,7 @@
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
     </row>
-    <row r="316" spans="2:10">
+    <row r="316" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -29326,7 +29291,7 @@
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
     </row>
-    <row r="317" spans="2:10">
+    <row r="317" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -29337,7 +29302,7 @@
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
     </row>
-    <row r="318" spans="2:10">
+    <row r="318" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -29348,7 +29313,7 @@
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
     </row>
-    <row r="319" spans="2:10">
+    <row r="319" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -29359,7 +29324,7 @@
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
     </row>
-    <row r="320" spans="2:10">
+    <row r="320" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -29370,7 +29335,7 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row r="321" spans="2:10">
+    <row r="321" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -29381,7 +29346,7 @@
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
     </row>
-    <row r="322" spans="2:10">
+    <row r="322" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -29392,7 +29357,7 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row r="323" spans="2:10">
+    <row r="323" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -29403,7 +29368,7 @@
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
     </row>
-    <row r="324" spans="2:10">
+    <row r="324" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -29414,7 +29379,7 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325" spans="2:10">
+    <row r="325" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -29425,7 +29390,7 @@
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
     </row>
-    <row r="326" spans="2:10">
+    <row r="326" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -29436,7 +29401,7 @@
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
     </row>
-    <row r="327" spans="2:10">
+    <row r="327" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -29447,7 +29412,7 @@
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
     </row>
-    <row r="328" spans="2:10">
+    <row r="328" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -29458,7 +29423,7 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row r="329" spans="2:10">
+    <row r="329" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -29469,7 +29434,7 @@
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
     </row>
-    <row r="330" spans="2:10">
+    <row r="330" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -29480,7 +29445,7 @@
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
     </row>
-    <row r="331" spans="2:10">
+    <row r="331" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -29491,7 +29456,7 @@
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
     </row>
-    <row r="332" spans="2:10">
+    <row r="332" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -29502,7 +29467,7 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row r="333" spans="2:10">
+    <row r="333" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -29513,7 +29478,7 @@
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
     </row>
-    <row r="334" spans="2:10">
+    <row r="334" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -29524,7 +29489,7 @@
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
     </row>
-    <row r="335" spans="2:10">
+    <row r="335" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -29535,7 +29500,7 @@
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
     </row>
-    <row r="336" spans="2:10">
+    <row r="336" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -29546,7 +29511,7 @@
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
     </row>
-    <row r="337" spans="2:10">
+    <row r="337" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -29557,7 +29522,7 @@
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
     </row>
-    <row r="338" spans="2:10">
+    <row r="338" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -29568,7 +29533,7 @@
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
     </row>
-    <row r="339" spans="2:10">
+    <row r="339" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -29579,7 +29544,7 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row r="340" spans="2:10">
+    <row r="340" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -29590,7 +29555,7 @@
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
     </row>
-    <row r="341" spans="2:10">
+    <row r="341" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -29601,7 +29566,7 @@
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
     </row>
-    <row r="342" spans="2:10">
+    <row r="342" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -29612,7 +29577,7 @@
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
     </row>
-    <row r="343" spans="2:10">
+    <row r="343" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -29623,7 +29588,7 @@
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
     </row>
-    <row r="344" spans="2:10">
+    <row r="344" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -29634,7 +29599,7 @@
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
     </row>
-    <row r="345" spans="2:10">
+    <row r="345" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -29645,7 +29610,7 @@
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
     </row>
-    <row r="346" spans="2:10">
+    <row r="346" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -29656,7 +29621,7 @@
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
     </row>
-    <row r="347" spans="2:10">
+    <row r="347" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -29667,7 +29632,7 @@
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
     </row>
-    <row r="348" spans="2:10">
+    <row r="348" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -29678,7 +29643,7 @@
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
     </row>
-    <row r="349" spans="2:10">
+    <row r="349" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -29689,7 +29654,7 @@
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
     </row>
-    <row r="350" spans="2:10">
+    <row r="350" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -29700,7 +29665,7 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
     </row>
-    <row r="351" spans="2:10">
+    <row r="351" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -29711,7 +29676,7 @@
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
     </row>
-    <row r="352" spans="2:10">
+    <row r="352" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -29722,7 +29687,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353" spans="2:10">
+    <row r="353" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -29733,7 +29698,7 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="2:10">
+    <row r="354" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -29744,7 +29709,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10">
+    <row r="355" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -29755,7 +29720,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10">
+    <row r="356" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -29766,7 +29731,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10">
+    <row r="357" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -29777,7 +29742,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10">
+    <row r="358" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -29788,7 +29753,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10">
+    <row r="359" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -29799,7 +29764,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10">
+    <row r="360" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -29810,7 +29775,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10">
+    <row r="361" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -29821,7 +29786,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10">
+    <row r="362" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -29832,7 +29797,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10">
+    <row r="363" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -29843,7 +29808,7 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10">
+    <row r="364" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -29854,7 +29819,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10">
+    <row r="365" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -29865,7 +29830,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10">
+    <row r="366" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -29876,7 +29841,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10">
+    <row r="367" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -29887,7 +29852,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10">
+    <row r="368" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -29898,7 +29863,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10">
+    <row r="369" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -29909,7 +29874,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10">
+    <row r="370" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -29920,7 +29885,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10">
+    <row r="371" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -29931,7 +29896,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10">
+    <row r="372" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -29942,7 +29907,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10">
+    <row r="373" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -29953,7 +29918,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10">
+    <row r="374" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -29964,7 +29929,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10">
+    <row r="375" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -29975,7 +29940,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10">
+    <row r="376" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -29986,7 +29951,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10">
+    <row r="377" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -29997,7 +29962,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="2:10">
+    <row r="378" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -30008,7 +29973,7 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="379" spans="2:10">
+    <row r="379" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -30019,7 +29984,7 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
     </row>
-    <row r="380" spans="2:10">
+    <row r="380" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -30030,7 +29995,7 @@
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
     </row>
-    <row r="381" spans="2:10">
+    <row r="381" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -30041,7 +30006,7 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
     </row>
-    <row r="382" spans="2:10">
+    <row r="382" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -30052,7 +30017,7 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
     </row>
-    <row r="383" spans="2:10">
+    <row r="383" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -30063,7 +30028,7 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
     </row>
-    <row r="384" spans="2:10">
+    <row r="384" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -30074,7 +30039,7 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
     </row>
-    <row r="385" spans="2:10">
+    <row r="385" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -30085,7 +30050,7 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
     </row>
-    <row r="386" spans="2:10">
+    <row r="386" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -30096,7 +30061,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387" spans="2:10">
+    <row r="387" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -30107,7 +30072,7 @@
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
     </row>
-    <row r="388" spans="2:10">
+    <row r="388" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -30118,7 +30083,7 @@
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
     </row>
-    <row r="389" spans="2:10">
+    <row r="389" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -30129,7 +30094,7 @@
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
     </row>
-    <row r="390" spans="2:10">
+    <row r="390" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -30140,7 +30105,7 @@
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
     </row>
-    <row r="391" spans="2:10">
+    <row r="391" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -30151,7 +30116,7 @@
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
     </row>
-    <row r="392" spans="2:10">
+    <row r="392" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -30162,7 +30127,7 @@
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
     </row>
-    <row r="393" spans="2:10">
+    <row r="393" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -30173,7 +30138,7 @@
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
     </row>
-    <row r="394" spans="2:10">
+    <row r="394" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -30184,7 +30149,7 @@
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
     </row>
-    <row r="395" spans="2:10">
+    <row r="395" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -30195,7 +30160,7 @@
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
     </row>
-    <row r="396" spans="2:10">
+    <row r="396" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -30206,7 +30171,7 @@
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
     </row>
-    <row r="397" spans="2:10">
+    <row r="397" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -30217,7 +30182,7 @@
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
     </row>
-    <row r="398" spans="2:10">
+    <row r="398" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -30228,7 +30193,7 @@
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
     </row>
-    <row r="399" spans="2:10">
+    <row r="399" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -30239,7 +30204,7 @@
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
     </row>
-    <row r="400" spans="2:10">
+    <row r="400" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -30250,7 +30215,7 @@
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
     </row>
-    <row r="401" spans="2:10">
+    <row r="401" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -30261,7 +30226,7 @@
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
     </row>
-    <row r="402" spans="2:10">
+    <row r="402" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -30272,7 +30237,7 @@
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
     </row>
-    <row r="403" spans="2:10">
+    <row r="403" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -30283,7 +30248,7 @@
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
     </row>
-    <row r="404" spans="2:10">
+    <row r="404" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -30294,7 +30259,7 @@
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
     </row>
-    <row r="405" spans="2:10">
+    <row r="405" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -30305,7 +30270,7 @@
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
     </row>
-    <row r="406" spans="2:10">
+    <row r="406" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -30316,7 +30281,7 @@
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
     </row>
-    <row r="407" spans="2:10">
+    <row r="407" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -30327,7 +30292,7 @@
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
     </row>
-    <row r="408" spans="2:10">
+    <row r="408" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -30338,7 +30303,7 @@
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
     </row>
-    <row r="409" spans="2:10">
+    <row r="409" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -30349,7 +30314,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
     </row>
-    <row r="410" spans="2:10">
+    <row r="410" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -30360,7 +30325,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411" spans="2:10">
+    <row r="411" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -30371,7 +30336,7 @@
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
     </row>
-    <row r="412" spans="2:10">
+    <row r="412" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -30382,7 +30347,7 @@
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
     </row>
-    <row r="413" spans="2:10">
+    <row r="413" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -30393,7 +30358,7 @@
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
     </row>
-    <row r="414" spans="2:10">
+    <row r="414" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -30404,7 +30369,7 @@
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
     </row>
-    <row r="415" spans="2:10">
+    <row r="415" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -30415,7 +30380,7 @@
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
     </row>
-    <row r="416" spans="2:10">
+    <row r="416" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -30426,7 +30391,7 @@
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
     </row>
-    <row r="417" spans="2:10">
+    <row r="417" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -30437,7 +30402,7 @@
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
     </row>
-    <row r="418" spans="2:10">
+    <row r="418" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -30448,7 +30413,7 @@
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
     </row>
-    <row r="419" spans="2:10">
+    <row r="419" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -30459,7 +30424,7 @@
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
     </row>
-    <row r="420" spans="2:10">
+    <row r="420" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -30470,7 +30435,7 @@
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
     </row>
-    <row r="421" spans="2:10">
+    <row r="421" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -30481,7 +30446,7 @@
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
     </row>
-    <row r="422" spans="2:10">
+    <row r="422" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -30492,7 +30457,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
     </row>
-    <row r="423" spans="2:10">
+    <row r="423" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -30503,7 +30468,7 @@
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
     </row>
-    <row r="424" spans="2:10">
+    <row r="424" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -30514,7 +30479,7 @@
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
     </row>
-    <row r="425" spans="2:10">
+    <row r="425" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -30525,7 +30490,7 @@
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
     </row>
-    <row r="426" spans="2:10">
+    <row r="426" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -30536,7 +30501,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
     </row>
-    <row r="427" spans="2:10">
+    <row r="427" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -30547,7 +30512,7 @@
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
     </row>
-    <row r="428" spans="2:10">
+    <row r="428" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -30558,7 +30523,7 @@
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
     </row>
-    <row r="429" spans="2:10">
+    <row r="429" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -30569,7 +30534,7 @@
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
     </row>
-    <row r="430" spans="2:10">
+    <row r="430" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -30580,7 +30545,7 @@
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
     </row>
-    <row r="431" spans="2:10">
+    <row r="431" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -30591,7 +30556,7 @@
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
     </row>
-    <row r="432" spans="2:10">
+    <row r="432" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -30602,7 +30567,7 @@
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
     </row>
-    <row r="433" spans="2:10">
+    <row r="433" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -30613,7 +30578,7 @@
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
     </row>
-    <row r="434" spans="2:10">
+    <row r="434" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -30624,7 +30589,7 @@
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
     </row>
-    <row r="435" spans="2:10">
+    <row r="435" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -30635,7 +30600,7 @@
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
     </row>
-    <row r="436" spans="2:10">
+    <row r="436" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -30646,7 +30611,7 @@
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
     </row>
-    <row r="437" spans="2:10">
+    <row r="437" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -30657,7 +30622,7 @@
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
     </row>
-    <row r="438" spans="2:10">
+    <row r="438" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -30668,7 +30633,7 @@
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
     </row>
-    <row r="439" spans="2:10">
+    <row r="439" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -30679,7 +30644,7 @@
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
     </row>
-    <row r="440" spans="2:10">
+    <row r="440" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -30690,7 +30655,7 @@
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
     </row>
-    <row r="441" spans="2:10">
+    <row r="441" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -30701,7 +30666,7 @@
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
     </row>
-    <row r="442" spans="2:10">
+    <row r="442" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -30712,7 +30677,7 @@
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
     </row>
-    <row r="443" spans="2:10">
+    <row r="443" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -30723,7 +30688,7 @@
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
     </row>
-    <row r="444" spans="2:10">
+    <row r="444" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -30734,7 +30699,7 @@
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
     </row>
-    <row r="445" spans="2:10">
+    <row r="445" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -30745,7 +30710,7 @@
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
     </row>
-    <row r="446" spans="2:10">
+    <row r="446" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -30756,7 +30721,7 @@
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
     </row>
-    <row r="447" spans="2:10">
+    <row r="447" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -30767,7 +30732,7 @@
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
     </row>
-    <row r="448" spans="2:10">
+    <row r="448" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -30778,7 +30743,7 @@
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
     </row>
-    <row r="449" spans="2:10">
+    <row r="449" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -30789,7 +30754,7 @@
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
     </row>
-    <row r="450" spans="2:10">
+    <row r="450" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -30800,7 +30765,7 @@
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
     </row>
-    <row r="451" spans="2:10">
+    <row r="451" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -30811,7 +30776,7 @@
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
     </row>
-    <row r="452" spans="2:10">
+    <row r="452" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -30822,7 +30787,7 @@
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
     </row>
-    <row r="453" spans="2:10">
+    <row r="453" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -30833,7 +30798,7 @@
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
     </row>
-    <row r="454" spans="2:10">
+    <row r="454" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -30844,7 +30809,7 @@
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
     </row>
-    <row r="455" spans="2:10">
+    <row r="455" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -30855,7 +30820,7 @@
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
     </row>
-    <row r="456" spans="2:10">
+    <row r="456" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -30866,7 +30831,7 @@
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
     </row>
-    <row r="457" spans="2:10">
+    <row r="457" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -30877,7 +30842,7 @@
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
     </row>
-    <row r="458" spans="2:10">
+    <row r="458" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -30888,7 +30853,7 @@
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
     </row>
-    <row r="459" spans="2:10">
+    <row r="459" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -30899,7 +30864,7 @@
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
     </row>
-    <row r="460" spans="2:10">
+    <row r="460" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -30910,7 +30875,7 @@
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
     </row>
-    <row r="461" spans="2:10">
+    <row r="461" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -30921,7 +30886,7 @@
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
     </row>
-    <row r="462" spans="2:10">
+    <row r="462" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -30932,7 +30897,7 @@
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
     </row>
-    <row r="463" spans="2:10">
+    <row r="463" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -30943,7 +30908,7 @@
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
     </row>
-    <row r="464" spans="2:10">
+    <row r="464" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -30954,7 +30919,7 @@
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
     </row>
-    <row r="465" spans="2:10">
+    <row r="465" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -30965,7 +30930,7 @@
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
     </row>
-    <row r="466" spans="2:10">
+    <row r="466" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -30976,7 +30941,7 @@
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
     </row>
-    <row r="467" spans="2:10">
+    <row r="467" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -30987,7 +30952,7 @@
       <c r="I467" s="1"/>
       <c r="J467" s="1"/>
     </row>
-    <row r="468" spans="2:10">
+    <row r="468" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -30998,7 +30963,7 @@
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
     </row>
-    <row r="469" spans="2:10">
+    <row r="469" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -31009,7 +30974,7 @@
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
     </row>
-    <row r="470" spans="2:10">
+    <row r="470" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -31020,7 +30985,7 @@
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
     </row>
-    <row r="471" spans="2:10">
+    <row r="471" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -31031,7 +30996,7 @@
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
     </row>
-    <row r="472" spans="2:10">
+    <row r="472" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -31042,7 +31007,7 @@
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
     </row>
-    <row r="473" spans="2:10">
+    <row r="473" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -31053,7 +31018,7 @@
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
     </row>
-    <row r="474" spans="2:10">
+    <row r="474" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -31064,7 +31029,7 @@
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
     </row>
-    <row r="475" spans="2:10">
+    <row r="475" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -31075,7 +31040,7 @@
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
     </row>
-    <row r="476" spans="2:10">
+    <row r="476" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -31086,7 +31051,7 @@
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
     </row>
-    <row r="477" spans="2:10">
+    <row r="477" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -31097,7 +31062,7 @@
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
     </row>
-    <row r="478" spans="2:10">
+    <row r="478" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -31108,7 +31073,7 @@
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
     </row>
-    <row r="479" spans="2:10">
+    <row r="479" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -31119,7 +31084,7 @@
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
     </row>
-    <row r="480" spans="2:10">
+    <row r="480" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -31130,7 +31095,7 @@
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
     </row>
-    <row r="481" spans="2:10">
+    <row r="481" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -31141,7 +31106,7 @@
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
     </row>
-    <row r="482" spans="2:10">
+    <row r="482" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -31152,7 +31117,7 @@
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
     </row>
-    <row r="483" spans="2:10">
+    <row r="483" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -31163,7 +31128,7 @@
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
     </row>
-    <row r="484" spans="2:10">
+    <row r="484" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -31174,7 +31139,7 @@
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
     </row>
-    <row r="485" spans="2:10">
+    <row r="485" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -31185,7 +31150,7 @@
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
     </row>
-    <row r="486" spans="2:10">
+    <row r="486" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -31196,7 +31161,7 @@
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
     </row>
-    <row r="487" spans="2:10">
+    <row r="487" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -31207,7 +31172,7 @@
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
     </row>
-    <row r="488" spans="2:10">
+    <row r="488" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -31218,7 +31183,7 @@
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
     </row>
-    <row r="489" spans="2:10">
+    <row r="489" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -31229,7 +31194,7 @@
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
     </row>
-    <row r="490" spans="2:10">
+    <row r="490" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -31240,7 +31205,7 @@
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
     </row>
-    <row r="491" spans="2:10">
+    <row r="491" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -31251,7 +31216,7 @@
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
     </row>
-    <row r="492" spans="2:10">
+    <row r="492" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -31262,7 +31227,7 @@
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
     </row>
-    <row r="493" spans="2:10">
+    <row r="493" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -31273,7 +31238,7 @@
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
     </row>
-    <row r="494" spans="2:10">
+    <row r="494" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -31284,7 +31249,7 @@
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
     </row>
-    <row r="495" spans="2:10">
+    <row r="495" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -31295,7 +31260,7 @@
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
     </row>
-    <row r="496" spans="2:10">
+    <row r="496" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -31306,7 +31271,7 @@
       <c r="I496" s="1"/>
       <c r="J496" s="1"/>
     </row>
-    <row r="497" spans="2:10">
+    <row r="497" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -31317,7 +31282,7 @@
       <c r="I497" s="1"/>
       <c r="J497" s="1"/>
     </row>
-    <row r="498" spans="2:10">
+    <row r="498" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -31328,7 +31293,7 @@
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
     </row>
-    <row r="499" spans="2:10">
+    <row r="499" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -31339,7 +31304,7 @@
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
     </row>
-    <row r="500" spans="2:10">
+    <row r="500" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -31350,7 +31315,7 @@
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
     </row>
-    <row r="501" spans="2:10">
+    <row r="501" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -31361,7 +31326,7 @@
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
     </row>
-    <row r="502" spans="2:10">
+    <row r="502" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -31372,7 +31337,7 @@
       <c r="I502" s="1"/>
       <c r="J502" s="1"/>
     </row>
-    <row r="503" spans="2:10">
+    <row r="503" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -31383,7 +31348,7 @@
       <c r="I503" s="1"/>
       <c r="J503" s="1"/>
     </row>
-    <row r="504" spans="2:10">
+    <row r="504" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -31394,7 +31359,7 @@
       <c r="I504" s="1"/>
       <c r="J504" s="1"/>
     </row>
-    <row r="505" spans="2:10">
+    <row r="505" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -31405,7 +31370,7 @@
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
     </row>
-    <row r="506" spans="2:10">
+    <row r="506" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -31416,7 +31381,7 @@
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
     </row>
-    <row r="507" spans="2:10">
+    <row r="507" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -31427,7 +31392,7 @@
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
     </row>
-    <row r="508" spans="2:10">
+    <row r="508" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -31438,7 +31403,7 @@
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
     </row>
-    <row r="509" spans="2:10">
+    <row r="509" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -31449,7 +31414,7 @@
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
     </row>
-    <row r="510" spans="2:10">
+    <row r="510" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -31460,7 +31425,7 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
     </row>
-    <row r="511" spans="2:10">
+    <row r="511" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
@@ -31471,7 +31436,7 @@
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
     </row>
-    <row r="512" spans="2:10">
+    <row r="512" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -31482,7 +31447,7 @@
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
     </row>
-    <row r="513" spans="2:10">
+    <row r="513" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
@@ -31493,7 +31458,7 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
     </row>
-    <row r="514" spans="2:10">
+    <row r="514" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
@@ -31504,7 +31469,7 @@
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
     </row>
-    <row r="515" spans="2:10">
+    <row r="515" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -31528,27 +31493,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
         <v>54</v>
@@ -31558,7 +31523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
         <v>46</v>
@@ -31568,7 +31533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>68</v>
       </c>
@@ -31577,12 +31542,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="18" t="s">
         <v>59</v>
@@ -31595,7 +31560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>62</v>
@@ -31608,7 +31573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>63</v>
@@ -31628,18 +31593,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -31663,7 +31628,7 @@
       </c>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <f>Data!J3</f>
         <v>0</v>
@@ -31694,7 +31659,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" s="9"/>
     </row>
   </sheetData>
